--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Ivette Amalfi.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Ivette Amalfi.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="470">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -9355,28 +9355,13 @@
       </c>
     </row>
     <row r="46" ht="15.6" customHeight="true">
-      <c r="Z46" s="100" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="AA46" s="105" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AB46" s="105" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="AC46" s="102" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="Z46" s="100"/>
+      <c r="AA46" s="105"/>
+      <c r="AB46" s="105"/>
+      <c r="AC46" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="AA34:AC34"/>
@@ -9386,6 +9371,13 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="T32:V32"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Ivette Amalfi.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Ivette Amalfi.xlsx
@@ -5703,7 +5703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="492">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6839,6 +6839,12 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7368,36 +7374,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="6.0" customWidth="true"/>
-    <col min="27" max="27" width="21.77734375" customWidth="true"/>
-    <col min="28" max="28" width="21.77734375" customWidth="true"/>
-    <col min="29" max="29" width="21.77734375" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9391,23 +9397,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -9987,23 +9993,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10590,23 +10596,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11185,23 +11191,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11787,23 +11793,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11982,8 +11988,12 @@
       <c r="B18" s="127" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="128"/>
-      <c r="E18" s="128"/>
+      <c r="C18" s="491" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E18" s="491" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G18" s="125" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -11993,8 +12003,12 @@
       <c r="B19" s="127" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="128"/>
-      <c r="E19" s="128"/>
+      <c r="C19" s="491" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E19" s="491" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G19" s="125" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12004,8 +12018,12 @@
       <c r="B20" s="127" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="E20" s="128"/>
+      <c r="C20" s="491" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E20" s="491" t="n">
+        <v>0.7638888888888888</v>
+      </c>
       <c r="G20" s="125" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -12025,8 +12043,12 @@
       <c r="B22" s="127" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="C22" s="491" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E22" s="491" t="n">
+        <v>0.71875</v>
+      </c>
       <c r="G22" s="125" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12056,8 +12078,12 @@
       <c r="B25" s="127" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="E25" s="128"/>
+      <c r="C25" s="491" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E25" s="491" t="n">
+        <v>0.7326388888888888</v>
+      </c>
       <c r="G25" s="125" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12067,8 +12093,12 @@
       <c r="B26" s="127" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="E26" s="128"/>
+      <c r="C26" s="491" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E26" s="491" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G26" s="125" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12078,8 +12108,12 @@
       <c r="B27" s="127" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="E27" s="128"/>
+      <c r="C27" s="491" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="E27" s="491" t="n">
+        <v>0.7256944444444444</v>
+      </c>
       <c r="G27" s="125" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12089,8 +12123,12 @@
       <c r="B28" s="127" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="E28" s="128"/>
+      <c r="C28" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G28" s="125" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12100,8 +12138,12 @@
       <c r="B29" s="127" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="C29" s="491" t="n">
+        <v>0.3770833333333333</v>
+      </c>
+      <c r="E29" s="491" t="n">
+        <v>0.7520833333333333</v>
+      </c>
       <c r="G29" s="125" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12131,8 +12173,12 @@
       <c r="B32" s="127" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="E32" s="128"/>
+      <c r="C32" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="125" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12142,8 +12188,12 @@
       <c r="B33" s="127" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="128"/>
-      <c r="E33" s="128"/>
+      <c r="C33" s="491" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E33" s="491" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G33" s="125" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12153,8 +12203,12 @@
       <c r="B34" s="127" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="128"/>
-      <c r="E34" s="128"/>
+      <c r="C34" s="491" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="E34" s="491" t="n">
+        <v>0.7604166666666666</v>
+      </c>
       <c r="G34" s="125" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12164,8 +12218,12 @@
       <c r="B35" s="127" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="C35" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G35" s="125" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12175,8 +12233,12 @@
       <c r="B36" s="127" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="E36" s="128"/>
+      <c r="C36" s="491" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E36" s="491" t="n">
+        <v>0.7291666666666666</v>
+      </c>
       <c r="G36" s="125" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12206,8 +12268,12 @@
       <c r="B39" s="127" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="E39" s="128"/>
+      <c r="C39" s="491" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E39" s="491" t="n">
+        <v>0.78125</v>
+      </c>
       <c r="G39" s="125" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12217,8 +12283,12 @@
       <c r="B40" s="127" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="128"/>
-      <c r="E40" s="128"/>
+      <c r="C40" s="491" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E40" s="491" t="n">
+        <v>0.7152777777777778</v>
+      </c>
       <c r="G40" s="125" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12228,8 +12298,12 @@
       <c r="B41" s="127" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="128"/>
-      <c r="E41" s="128"/>
+      <c r="C41" s="491" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="E41" s="491" t="n">
+        <v>0.7708333333333334</v>
+      </c>
       <c r="G41" s="125" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12239,8 +12313,12 @@
       <c r="B42" s="127" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="128"/>
-      <c r="E42" s="128"/>
+      <c r="C42" s="491" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="E42" s="491" t="n">
+        <v>0.7256944444444444</v>
+      </c>
       <c r="G42" s="125" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12250,8 +12328,12 @@
       <c r="B43" s="127" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="128"/>
-      <c r="E43" s="128"/>
+      <c r="C43" s="491" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="491" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="125" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12281,8 +12363,12 @@
       <c r="B46" s="127" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="128"/>
-      <c r="E46" s="128"/>
+      <c r="C46" s="491" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="491" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="125" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -12411,23 +12497,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13020,23 +13106,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13641,23 +13727,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14253,23 +14339,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14873,23 +14959,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15471,23 +15557,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16073,23 +16159,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Ivette Amalfi.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Ivette Amalfi.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="119">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,6 +378,15 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Medio Dia</t>
+  </si>
+  <si>
+    <t>Medio dia</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="156">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1602,6 +1613,102 @@
     </xf>
     <xf borderId="31" fillId="12" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2210,20 +2317,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="2.71"/>
-    <col customWidth="1" min="10" max="16" width="6.71"/>
-    <col customWidth="1" min="17" max="17" width="2.71"/>
-    <col customWidth="1" min="18" max="24" width="6.71"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="6.0"/>
-    <col customWidth="1" min="27" max="29" width="21.71"/>
+    <col min="1" max="1" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="6.0" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="21.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5164,24 +5272,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -6657,24 +6766,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -8157,24 +8267,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -9649,24 +9760,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -11148,24 +11260,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -12749,24 +12862,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -14255,24 +14369,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -15773,24 +15888,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -17282,24 +17398,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -17733,11 +17850,14 @@
       <c r="B42" s="121">
         <v>27.0</v>
       </c>
-      <c r="C42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="G42" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C42" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
@@ -18799,24 +18919,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -19132,11 +19253,14 @@
       <c r="B32" s="121">
         <v>17.0</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="G32" s="106">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C32" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
@@ -19163,44 +19287,56 @@
       <c r="B35" s="121">
         <v>20.0</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="G35" s="106">
-        <f t="shared" ref="G35:G38" si="4">IF((E35-C35)*24&lt;=4,(E35-C35)*24,(E35-C35)*24-1)</f>
-        <v>0</v>
+      <c r="C35" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="B36" s="121">
         <v>21.0</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="G36" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C36" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="B37" s="121">
         <v>22.0</v>
       </c>
-      <c r="C37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="G37" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C37" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="B38" s="121">
         <v>23.0</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="E38" s="122"/>
-      <c r="G38" s="106">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C38" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
@@ -19237,44 +19373,56 @@
       <c r="B42" s="121">
         <v>27.0</v>
       </c>
-      <c r="C42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="G42" s="106">
-        <f t="shared" ref="G42:G45" si="5">IF((E42-C42)*24&lt;=4,(E42-C42)*24,(E42-C42)*24-1)</f>
-        <v>0</v>
+      <c r="C42" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="B43" s="121">
         <v>28.0</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="G43" s="106">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C43" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="B44" s="121">
         <v>29.0</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="G44" s="106">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C44" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="B45" s="121">
         <v>30.0</v>
       </c>
-      <c r="C45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="G45" s="106">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C45" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="106" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1"/>
@@ -20295,24 +20443,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20452,11 +20601,14 @@
       <c r="B16" s="121">
         <v>1.0</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="G16" s="106">
-        <f>IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="147" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="147" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -21794,24 +21946,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -21951,8 +22104,12 @@
       <c r="B16" s="121">
         <v>1.0</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="E16" s="122"/>
+      <c r="C16" s="128" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="128" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G16" s="106">
         <f t="shared" ref="G16:G20" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -21962,8 +22119,12 @@
       <c r="B17" s="121">
         <v>2.0</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="128" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="128" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21973,8 +22134,12 @@
       <c r="B18" s="121">
         <v>3.0</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="E18" s="122"/>
+      <c r="C18" s="128" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="128" t="n">
+        <v>0.75</v>
+      </c>
       <c r="G18" s="106">
         <f t="shared" si="1"/>
         <v>0</v>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Ivette Amalfi.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Ivette Amalfi.xlsx
@@ -12841,6 +12841,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>

--- a/config_files/Horarios/Palobiofarma, S.L Mataró/Ivette Amalfi.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Mataró/Ivette Amalfi.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="119">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +1946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2243,6 +2246,18 @@
     </xf>
     <xf numFmtId="181" fontId="18" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -18286,19 +18301,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4545454545455" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.8181818181818" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.7272727272727" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.09090909090909" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.7272727272727" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.09090909090909" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.7272727272727" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.72727272727273" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.8181818181818" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.27272727272727" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.2727272727273" collapsed="false"/>
-    <col min="12" max="16" customWidth="true" width="10.8181818181818" collapsed="false"/>
-    <col min="17" max="26" customWidth="true" width="8.72727272727273" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.8181818181818" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.09090909090909" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.09090909090909" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7272727272727" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.72727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8181818181818" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.27272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2727272727273" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8181818181818" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.72727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:14">
@@ -19863,7 +19878,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <sheetProtection password="BCDB" sheet="1" objects="1"/>
+  <sheetProtection password="BCDB" sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -21610,11 +21625,11 @@
       <c r="B16" s="14">
         <v>1</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>101</v>
+      <c r="C16" s="131" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="131" t="n">
+        <v>0.75</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>101</v>
@@ -21644,11 +21659,11 @@
       <c r="B19" s="14">
         <v>4</v>
       </c>
-      <c r="C19" s="50">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="E19" s="50">
-        <v>0.763888888888889</v>
+      <c r="C19" s="131" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E19" s="131" t="n">
+        <v>0.7638888888888888</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" ref="G19:G23" si="0">IF((E19-C19)*24&lt;=4,(E19-C19)*24,(E19-C19)*24-1)</f>
@@ -21659,11 +21674,11 @@
       <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="50">
-        <v>0.350694444444444</v>
-      </c>
-      <c r="E20" s="50">
-        <v>0.725694444444444</v>
+      <c r="C20" s="131" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="E20" s="131" t="n">
+        <v>0.7256944444444444</v>
       </c>
       <c r="G20" s="13">
         <f t="shared" si="0"/>
@@ -21674,11 +21689,11 @@
       <c r="B21" s="14">
         <v>6</v>
       </c>
-      <c r="C21" s="50">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="E21" s="50">
-        <v>0.729166666666667</v>
+      <c r="C21" s="131" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E21" s="131" t="n">
+        <v>0.7291666666666666</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="0"/>
@@ -21689,11 +21704,11 @@
       <c r="B22" s="14">
         <v>7</v>
       </c>
-      <c r="C22" s="50">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E22" s="50">
-        <v>0.708333333333333</v>
+      <c r="C22" s="131" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="131" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="0"/>
@@ -21704,11 +21719,11 @@
       <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="50">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="E23" s="50">
-        <v>0.763888888888889</v>
+      <c r="C23" s="131" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E23" s="131" t="n">
+        <v>0.7638888888888888</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="0"/>
@@ -21739,29 +21754,28 @@
       <c r="B26" s="14">
         <v>11</v>
       </c>
-      <c r="C26" s="50">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="E26" s="50">
-        <v>0.763888888888889</v>
-      </c>
-      <c r="G26" s="13">
-        <f t="shared" ref="G26:G30" si="1">IF((E26-C26)*24&lt;=4,(E26-C26)*24,(E26-C26)*24-1)</f>
-        <v>8</v>
+      <c r="C26" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="2:7">
       <c r="B27" s="14">
         <v>12</v>
       </c>
-      <c r="C27" s="50">
-        <v>0.350694444444444</v>
-      </c>
-      <c r="E27" s="50">
-        <v>0.725694444444444</v>
+      <c r="C27" s="131" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="E27" s="131" t="n">
+        <v>0.7256944444444444</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="1" ref="G27:G30">IF((E27-C27)*24&lt;=4,(E27-C27)*24,(E27-C27)*24-1)</f>
         <v>8</v>
       </c>
     </row>
@@ -21769,11 +21783,11 @@
       <c r="B28" s="14">
         <v>13</v>
       </c>
-      <c r="C28" s="50">
-        <v>0.388888888888889</v>
-      </c>
-      <c r="E28" s="50">
-        <v>0.763888888888889</v>
+      <c r="C28" s="131" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E28" s="131" t="n">
+        <v>0.7638888888888888</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="1"/>
@@ -21784,11 +21798,11 @@
       <c r="B29" s="14">
         <v>14</v>
       </c>
-      <c r="C29" s="50">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="E29" s="50">
-        <v>0.729166666666667</v>
+      <c r="C29" s="131" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E29" s="131" t="n">
+        <v>0.7291666666666666</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="1"/>
@@ -21799,11 +21813,11 @@
       <c r="B30" s="14">
         <v>15</v>
       </c>
-      <c r="C30" s="50">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="E30" s="50">
-        <v>0.708333333333333</v>
+      <c r="C30" s="131" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="131" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="1"/>
@@ -21834,11 +21848,11 @@
       <c r="B33" s="14">
         <v>18</v>
       </c>
-      <c r="C33" s="50">
-        <v>0.340277777777778</v>
-      </c>
-      <c r="E33" s="50">
-        <v>0.715277777777778</v>
+      <c r="C33" s="131" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E33" s="131" t="n">
+        <v>0.7152777777777778</v>
       </c>
       <c r="G33" s="13">
         <f t="shared" ref="G33:G37" si="2">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
@@ -21849,11 +21863,11 @@
       <c r="B34" s="14">
         <v>19</v>
       </c>
-      <c r="C34" s="50">
-        <v>0.357638888888889</v>
-      </c>
-      <c r="E34" s="50">
-        <v>0.732638888888889</v>
+      <c r="C34" s="131" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E34" s="131" t="n">
+        <v>0.7326388888888888</v>
       </c>
       <c r="G34" s="13">
         <f t="shared" si="2"/>
@@ -21864,10 +21878,10 @@
       <c r="B35" s="14">
         <v>20</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="131" t="n">
         <v>0.375</v>
       </c>
-      <c r="E35" s="50">
+      <c r="E35" s="131" t="n">
         <v>0.75</v>
       </c>
       <c r="G35" s="13">
@@ -21879,11 +21893,11 @@
       <c r="B36" s="14">
         <v>21</v>
       </c>
-      <c r="C36" s="50">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="E36" s="50">
-        <v>0.729166666666667</v>
+      <c r="C36" s="131" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E36" s="131" t="n">
+        <v>0.7291666666666666</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="2"/>
@@ -21894,11 +21908,11 @@
       <c r="B37" s="14">
         <v>22</v>
       </c>
-      <c r="C37" s="50">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="E37" s="50">
-        <v>0.729166666666667</v>
+      <c r="C37" s="131" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E37" s="131" t="n">
+        <v>0.7291666666666666</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="2"/>
@@ -21929,11 +21943,11 @@
       <c r="B40" s="14">
         <v>25</v>
       </c>
-      <c r="C40" s="50">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="E40" s="50">
-        <v>0.729166666666667</v>
+      <c r="C40" s="131" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E40" s="131" t="n">
+        <v>0.7291666666666666</v>
       </c>
       <c r="G40" s="13">
         <f t="shared" ref="G40:G41" si="3">IF((E40-C40)*24&lt;=4,(E40-C40)*24,(E40-C40)*24-1)</f>
@@ -21944,11 +21958,11 @@
       <c r="B41" s="14">
         <v>26</v>
       </c>
-      <c r="C41" s="50">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="E41" s="50">
-        <v>0.729166666666667</v>
+      <c r="C41" s="131" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="E41" s="131" t="n">
+        <v>0.7291666666666666</v>
       </c>
       <c r="G41" s="13">
         <f t="shared" si="3"/>
@@ -23005,6 +23019,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -23032,19 +23047,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4545454545455" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.8181818181818" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="18.7272727272727" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="3.09090909090909" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.7272727272727" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="3.09090909090909" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="14.7272727272727" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="4.72727272727273" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="10.8181818181818" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="5.27272727272727" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="13.2727272727273" collapsed="false"/>
-    <col min="12" max="16" customWidth="true" width="10.8181818181818" collapsed="false"/>
-    <col min="17" max="26" customWidth="true" width="8.72727272727273" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="10.8181818181818" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.7272727272727" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.09090909090909" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.7272727272727" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.09090909090909" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.7272727272727" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.72727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.8181818181818" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.27272727272727" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.2727272727273" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.8181818181818" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.72727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1" spans="10:11">
@@ -23183,10 +23198,10 @@
       <c r="B16" s="14">
         <v>1</v>
       </c>
-      <c r="C16" s="128" t="n">
+      <c r="C16" s="132" t="n">
         <v>0.375</v>
       </c>
-      <c r="E16" s="128" t="n">
+      <c r="E16" s="132" t="n">
         <v>0.75</v>
       </c>
       <c r="G16" s="13">
@@ -23198,10 +23213,10 @@
       <c r="B17" s="14">
         <v>2</v>
       </c>
-      <c r="C17" s="128" t="n">
+      <c r="C17" s="132" t="n">
         <v>0.375</v>
       </c>
-      <c r="E17" s="128" t="n">
+      <c r="E17" s="132" t="n">
         <v>0.75</v>
       </c>
       <c r="G17" s="13">
@@ -23213,10 +23228,10 @@
       <c r="B18" s="14">
         <v>3</v>
       </c>
-      <c r="C18" s="128" t="n">
+      <c r="C18" s="132" t="n">
         <v>0.375</v>
       </c>
-      <c r="E18" s="128" t="n">
+      <c r="E18" s="132" t="n">
         <v>0.75</v>
       </c>
       <c r="G18" s="13">
@@ -23242,11 +23257,14 @@
       <c r="B20" s="14">
         <v>5</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="G20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="2:7">
@@ -23273,55 +23291,70 @@
       <c r="B23" s="14">
         <v>8</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="G23" s="13">
-        <f t="shared" ref="G23:G27" si="1">IF((E23-C23)*24&lt;=4,(E23-C23)*24,(E23-C23)*24-1)</f>
-        <v>0</v>
+      <c r="C23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="2:7">
       <c r="B24" s="14">
         <v>9</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="G24" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="2:7">
       <c r="B25" s="14">
         <v>10</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="G25" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="2:7">
       <c r="B26" s="14">
         <v>11</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="G26" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="2:7">
       <c r="B27" s="14">
         <v>12</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="G27" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="2:7">
@@ -23358,10 +23391,10 @@
       <c r="B31" s="14">
         <v>16</v>
       </c>
-      <c r="C31" s="128" t="n">
+      <c r="C31" s="132" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="E31" s="128" t="n">
+      <c r="E31" s="132" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="G31" s="13">
@@ -23373,10 +23406,10 @@
       <c r="B32" s="14">
         <v>17</v>
       </c>
-      <c r="C32" s="128" t="n">
+      <c r="C32" s="132" t="n">
         <v>0.375</v>
       </c>
-      <c r="E32" s="128" t="n">
+      <c r="E32" s="132" t="n">
         <v>0.75</v>
       </c>
       <c r="G32" s="13">
@@ -23388,10 +23421,10 @@
       <c r="B33" s="14">
         <v>18</v>
       </c>
-      <c r="C33" s="128" t="n">
+      <c r="C33" s="132" t="n">
         <v>0.375</v>
       </c>
-      <c r="E33" s="128" t="n">
+      <c r="E33" s="132" t="n">
         <v>0.75</v>
       </c>
       <c r="G33" s="13">
@@ -23403,15 +23436,14 @@
       <c r="B34" s="14">
         <v>19</v>
       </c>
-      <c r="C34" s="128" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="E34" s="128" t="n">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="G34" s="13">
-        <f t="shared" si="2"/>
-        <v>8</v>
+      <c r="C34" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="2:7">
@@ -23438,10 +23470,10 @@
       <c r="B37" s="14">
         <v>22</v>
       </c>
-      <c r="C37" s="128" t="n">
+      <c r="C37" s="132" t="n">
         <v>0.3402777777777778</v>
       </c>
-      <c r="E37" s="128" t="n">
+      <c r="E37" s="132" t="n">
         <v>0.7152777777777778</v>
       </c>
       <c r="G37" s="13">
@@ -23453,10 +23485,10 @@
       <c r="B38" s="14">
         <v>23</v>
       </c>
-      <c r="C38" s="128" t="n">
+      <c r="C38" s="132" t="n">
         <v>0.3576388888888889</v>
       </c>
-      <c r="E38" s="128" t="n">
+      <c r="E38" s="132" t="n">
         <v>0.7326388888888888</v>
       </c>
       <c r="G38" s="13">
@@ -23468,10 +23500,10 @@
       <c r="B39" s="14">
         <v>24</v>
       </c>
-      <c r="C39" s="128" t="n">
+      <c r="C39" s="132" t="n">
         <v>0.3506944444444444</v>
       </c>
-      <c r="E39" s="128" t="n">
+      <c r="E39" s="132" t="n">
         <v>0.7256944444444444</v>
       </c>
       <c r="G39" s="13">
@@ -23483,10 +23515,10 @@
       <c r="B40" s="14">
         <v>25</v>
       </c>
-      <c r="C40" s="128" t="n">
+      <c r="C40" s="132" t="n">
         <v>0.3888888888888889</v>
       </c>
-      <c r="E40" s="128" t="n">
+      <c r="E40" s="132" t="n">
         <v>0.7638888888888888</v>
       </c>
       <c r="G40" s="13">
@@ -23498,10 +23530,10 @@
       <c r="B41" s="14">
         <v>26</v>
       </c>
-      <c r="C41" s="128" t="n">
+      <c r="C41" s="132" t="n">
         <v>0.3506944444444444</v>
       </c>
-      <c r="E41" s="128" t="n">
+      <c r="E41" s="132" t="n">
         <v>0.7256944444444444</v>
       </c>
       <c r="G41" s="13">
@@ -23533,10 +23565,10 @@
       <c r="B44" s="14">
         <v>29</v>
       </c>
-      <c r="C44" s="128" t="n">
+      <c r="C44" s="132" t="n">
         <v>0.3506944444444444</v>
       </c>
-      <c r="E44" s="128" t="n">
+      <c r="E44" s="132" t="n">
         <v>0.7256944444444444</v>
       </c>
       <c r="G44" s="13">
@@ -23548,10 +23580,10 @@
       <c r="B45" s="14">
         <v>30</v>
       </c>
-      <c r="C45" s="128" t="n">
+      <c r="C45" s="132" t="n">
         <v>0.3888888888888889</v>
       </c>
-      <c r="E45" s="128" t="n">
+      <c r="E45" s="132" t="n">
         <v>0.7638888888888888</v>
       </c>
       <c r="G45" s="13">
@@ -23563,10 +23595,10 @@
       <c r="B46" s="14">
         <v>31</v>
       </c>
-      <c r="C46" s="128" t="n">
+      <c r="C46" s="132" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="E46" s="128" t="n">
+      <c r="E46" s="132" t="n">
         <v>0.7291666666666666</v>
       </c>
       <c r="G46" s="13">
@@ -24570,6 +24602,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
